--- a/ge/ge_template_ul.xlsx
+++ b/ge/ge_template_ul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoetucker/LBS/ge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD40B41-0E05-6146-BA39-327AE15B0D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA5460E-C0E1-734D-AD45-BEE4BA7CD7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gifts" sheetId="4" r:id="rId1"/>
@@ -25,12 +25,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>Unit</t>
   </si>
@@ -132,6 +142,9 @@
   </si>
   <si>
     <t>AUL/UL</t>
+  </si>
+  <si>
+    <t>LBS Notes</t>
   </si>
 </sst>
 </file>
@@ -419,43 +432,43 @@
     <xf numFmtId="44" fontId="3" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,14 +761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A899E671-F9B4-4874-9DAE-2E98C9A550B1}">
   <dimension ref="A1:BP16"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
@@ -775,6 +788,7 @@
     <col min="19" max="19" width="37.5" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
     <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="16" thickBot="1">
@@ -803,37 +817,37 @@
       <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:68" ht="32">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -851,48 +865,52 @@
       <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:68" ht="16">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:68">
       <c r="A4" s="4" t="s">
@@ -957,6 +975,9 @@
       </c>
       <c r="U4" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:68" s="3" customFormat="1">
@@ -1039,25 +1060,25 @@
       <c r="BP16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:U4" xr:uid="{9553CD2B-A0D1-4ECE-B5FB-0B62E2C4C91B}"/>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="L3:O3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1068,14 +1089,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26CC7C7-56C8-9D44-8CF9-0C733EEB6A60}">
   <dimension ref="A1:BQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
@@ -1096,6 +1117,7 @@
     <col min="20" max="20" width="52.5" customWidth="1"/>
     <col min="21" max="21" width="43.83203125" customWidth="1"/>
     <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="16" thickBot="1">
@@ -1125,37 +1147,37 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:69" ht="32">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1173,54 +1195,58 @@
       <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="16" t="s">
         <v>20</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:69" ht="16">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:69">
       <c r="A4" s="5" t="s">
@@ -1288,6 +1314,9 @@
       </c>
       <c r="V4" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:69" s="3" customFormat="1">
@@ -1372,8 +1401,13 @@
       <c r="BQ16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:V4" xr:uid="{9553CD2B-A0D1-4ECE-B5FB-0B62E2C4C91B}"/>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="G2:G3"/>
@@ -1381,11 +1415,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
